--- a/ioaConditions/train1P1Block6.xlsx
+++ b/ioaConditions/train1P1Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
   </si>
 </sst>
 </file>

--- a/ioaConditions/train1P1Block6.xlsx
+++ b/ioaConditions/train1P1Block6.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
+    <t>trainingaudio/08_tipako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.mp3</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/ioaConditions/train1P1Block6.xlsx
+++ b/ioaConditions/train1P1Block6.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.mp3</t>
+    <t>trainingaudio/08_tipako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.ogg</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/ioaConditions/train1P1Block6.xlsx
+++ b/ioaConditions/train1P1Block6.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.ogg</t>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
